--- a/forward_flight_alt.xlsx
+++ b/forward_flight_alt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hanh/GitHub/4343/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE048D3-0871-6143-A8EA-8DCCAC06C0DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5378BF0-7338-CD4D-AA62-214B8D70DE40}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="920" windowWidth="25040" windowHeight="14060" xr2:uid="{855D6CB5-D8F6-B14B-9A16-D56C5D272811}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="15260" windowHeight="14520" xr2:uid="{855D6CB5-D8F6-B14B-9A16-D56C5D272811}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691A4C5B-1C84-A04F-8960-61C4F41A620F}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,7 +478,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>221.75868917969041</v>
       </c>
       <c r="B2" s="2">
@@ -486,7 +486,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>206.54416923746791</v>
       </c>
       <c r="B3" s="2">
@@ -494,7 +494,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>193.50949101659819</v>
       </c>
       <c r="B4" s="2">
@@ -518,7 +518,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>164.49639481393385</v>
       </c>
       <c r="B7" s="2">
@@ -566,7 +566,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>135.57120397580772</v>
       </c>
       <c r="B13">
@@ -574,7 +574,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>133.22453506810109</v>
       </c>
       <c r="B14">
@@ -582,7 +582,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>131.4005624495334</v>
       </c>
       <c r="B15">
@@ -590,7 +590,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>130.05130306444318</v>
       </c>
       <c r="B16">
@@ -598,7 +598,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>129.13516915882863</v>
       </c>
       <c r="B17">
@@ -606,7 +606,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>128.61597203588124</v>
       </c>
       <c r="B18">
@@ -614,7 +614,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>128.46210227824818</v>
       </c>
       <c r="B19">
@@ -622,7 +622,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>128.64585159712644</v>
       </c>
       <c r="B20">
@@ -630,7 +630,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>129.14284901982069</v>
       </c>
       <c r="B21">
@@ -638,7 +638,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>129.93158990311707</v>
       </c>
       <c r="B22">
@@ -646,7 +646,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>130.99304070852605</v>
       </c>
       <c r="B23">
@@ -654,7 +654,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>132.31030592496282</v>
       </c>
       <c r="B24">
@@ -662,7 +662,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>133.86834621619178</v>
       </c>
       <c r="B25">
@@ -670,7 +670,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>135.65373898352252</v>
       </c>
       <c r="B26">
@@ -693,8 +693,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>142.25997123931185</v>
       </c>
       <c r="B29" s="3">
@@ -702,7 +702,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>144.84632311468951</v>
       </c>
       <c r="B30" s="2">
@@ -710,7 +710,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>147.61095667797488</v>
       </c>
       <c r="B31" s="2">
@@ -718,7 +718,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>150.54674346844436</v>
       </c>
       <c r="B32" s="2">
@@ -726,7 +726,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>153.64722111452969</v>
       </c>
       <c r="B33" s="2">
@@ -734,7 +734,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>156.9065200181515</v>
       </c>
       <c r="B34" s="2">
@@ -742,7 +742,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>160.31929928393583</v>
       </c>
       <c r="B35" s="2">
@@ -750,7 +750,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>163.88069058463492</v>
       </c>
       <c r="B36" s="2">
@@ -758,7 +758,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>167.58624885885476</v>
       </c>
       <c r="B37" s="2">
@@ -766,7 +766,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>171.43190890697616</v>
       </c>
       <c r="B38" s="2">
@@ -774,7 +774,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>175.41394709241592</v>
       </c>
       <c r="B39" s="2">
@@ -782,7 +782,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>179.52894747328949</v>
       </c>
       <c r="B40" s="2">
@@ -790,7 +790,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41">
         <v>183.77377178828556</v>
       </c>
       <c r="B41" s="6">
@@ -798,7 +798,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>188.14553280351424</v>
       </c>
       <c r="B42" s="2">
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>192.641570596984</v>
       </c>
       <c r="B43" s="2">
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>197.25943141641935</v>
       </c>
       <c r="B44" s="2">
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>201.99684879617772</v>
       </c>
       <c r="B45" s="2">
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>206.85172666154247</v>
       </c>
       <c r="B46" s="2">
@@ -838,7 +838,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>211.822124184893</v>
       </c>
       <c r="B47" s="2">
@@ -846,7 +846,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>216.90624218918751</v>
       </c>
       <c r="B48" s="2">
@@ -854,7 +854,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>222.10241092067997</v>
       </c>
       <c r="B49" s="2">
@@ -862,7 +862,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>227.40907903552241</v>
       </c>
       <c r="B50" s="2">
@@ -870,16 +870,200 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51">
         <v>232.82480366445364</v>
       </c>
       <c r="B51" s="4">
         <v>355</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>238.34824143663178</v>
+      </c>
+      <c r="B52" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>243.97814035822904</v>
+      </c>
+      <c r="B53" s="4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>249.71333245401516</v>
+      </c>
+      <c r="B54" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>255.55272709109462</v>
+      </c>
+      <c r="B55" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>261.49530491347053</v>
+      </c>
+      <c r="B56" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>267.54011232439103</v>
+      </c>
+      <c r="B57" s="4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>273.68625646065959</v>
+      </c>
+      <c r="B58" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>279.9329006094103</v>
+      </c>
+      <c r="B59" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>286.27926002338154</v>
+      </c>
+      <c r="B60" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>292.7245980955762</v>
+      </c>
+      <c r="B61" s="4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>299.26822285846271</v>
+      </c>
+      <c r="B62" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>305.90948377662772</v>
+      </c>
+      <c r="B63" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>312.64776880509953</v>
+      </c>
+      <c r="B64" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>319.48250168848756</v>
+      </c>
+      <c r="B65" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>326.41313947866951</v>
+      </c>
+      <c r="B66" s="4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>333.43917025104355</v>
+      </c>
+      <c r="B67" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>340.56011100140165</v>
+      </c>
+      <c r="B68" s="4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>347.77550570727823</v>
+      </c>
+      <c r="B69" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>355.08492353923697</v>
+      </c>
+      <c r="B70" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>362.48795720898812</v>
+      </c>
+      <c r="B71" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>369.98422144250281</v>
+      </c>
+      <c r="B72" s="4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>377.57335156743045</v>
+      </c>
+      <c r="B73" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>385.25500220514414</v>
+      </c>
+      <c r="B74" s="4">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B51">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="B2:B74">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -887,13 +1071,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C67298C-1EFC-E542-BCF9-DB1EEE4EAE4E}</x14:id>
+          <x14:id>{A20FEB03-4B55-2C41-AF30-1115484BDC00}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A51">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="A2:A29">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -911,7 +1095,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3C67298C-1EFC-E542-BCF9-DB1EEE4EAE4E}">
+          <x14:cfRule type="dataBar" id="{A20FEB03-4B55-2C41-AF30-1115484BDC00}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -921,7 +1105,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:B51</xm:sqref>
+          <xm:sqref>B2:B74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC6C7CEB-1276-694F-AEC5-0D26CCF3D2AD}">
@@ -934,7 +1118,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A2:A51</xm:sqref>
+          <xm:sqref>A2:A29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
